--- a/biology/Histoire de la zoologie et de la botanique/Curtis's_Botanical_Magazine/Curtis's_Botanical_Magazine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Curtis's_Botanical_Magazine/Curtis's_Botanical_Magazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Curtis%27s_Botanical_Magazine</t>
+          <t>Curtis's_Botanical_Magazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Botanical Magazine, ou Curtis's Botanical Magazine, est un magazine britannique trimestriel de botanique créé en 1787.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Curtis%27s_Botanical_Magazine</t>
+          <t>Curtis's_Botanical_Magazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier numéro du magazine est publié en 1787, par William Curtis. Il n'a jamais cessé de paraître, devenant The Kew Magazine entre 1984 et 1994 avant de redevenir le Curtis's Botanical Magazine. Il continue à être publié par les jardins botaniques royaux de Kew.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Curtis%27s_Botanical_Magazine</t>
+          <t>Curtis's_Botanical_Magazine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chacun de ces numéros contient la description de plantes dans un langage accessible à tous mais demeurant juste sur le plan scientifique. La description est étayée d'une illustration, le magazine étant connu pour la qualité de ses illustrateurs, qui illustre le magazine par des dessins à la main jusqu'en 1948. De nombreuses plantes ont été décrites pour la première fois dans ses pages.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Curtis%27s_Botanical_Magazine</t>
+          <t>Curtis's_Botanical_Magazine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnalités liées au magazine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William Curtis, botaniste, fondateur du magazine
 Sydenham Teast Edwards; botaniste et Illustrateur botanique
